--- a/MVandebroek/TAKEN/TASK0/1. FILES/solutions_taak0.xlsx
+++ b/MVandebroek/TAKEN/TASK0/1. FILES/solutions_taak0.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>q0762379</t>
+          <t>c1243957</t>
         </is>
       </c>
       <c r="B4">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>q1371623</t>
+          <t>q0762379</t>
         </is>
       </c>
       <c r="B5">
@@ -497,7 +497,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>q1411379</t>
+          <t>q1371623</t>
         </is>
       </c>
       <c r="B6">
@@ -517,6 +517,31 @@
       </c>
       <c r="G6">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>q1411379</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>1.43264</v>
+      </c>
+      <c r="C7">
+        <v>0.32398</v>
+      </c>
+      <c r="D7">
+        <v>0.84935</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/MVandebroek/TAKEN/TASK0/1. FILES/solutions_taak0.xlsx
+++ b/MVandebroek/TAKEN/TASK0/1. FILES/solutions_taak0.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>q0762379</t>
+          <t>q0328135_previewuser</t>
         </is>
       </c>
       <c r="B5">
@@ -497,7 +497,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>q1371623</t>
+          <t>q0762379</t>
         </is>
       </c>
       <c r="B6">
@@ -522,7 +522,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>q1411379</t>
+          <t>q1371623</t>
         </is>
       </c>
       <c r="B7">
@@ -542,6 +542,31 @@
       </c>
       <c r="G7">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>q1411379</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>1.87653</v>
+      </c>
+      <c r="C8">
+        <v>0.29122</v>
+      </c>
+      <c r="D8">
+        <v>0.92827</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/MVandebroek/TAKEN/TASK0/1. FILES/solutions_taak0.xlsx
+++ b/MVandebroek/TAKEN/TASK0/1. FILES/solutions_taak0.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>q0328135_previewuser</t>
+          <t>q0762379</t>
         </is>
       </c>
       <c r="B5">
@@ -497,7 +497,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>q0762379</t>
+          <t>q1371623</t>
         </is>
       </c>
       <c r="B6">
@@ -522,7 +522,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>q1371623</t>
+          <t>q1411379</t>
         </is>
       </c>
       <c r="B7">
@@ -542,31 +542,6 @@
       </c>
       <c r="G7">
         <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>q1411379</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>1.87653</v>
-      </c>
-      <c r="C8">
-        <v>0.29122</v>
-      </c>
-      <c r="D8">
-        <v>0.92827</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
